--- a/addons/pharma-pos/demo_excel/pharma_pos.pack.xlsx
+++ b/addons/pharma-pos/demo_excel/pharma_pos.pack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Product</t>
   </si>
@@ -34,19 +34,7 @@
     <t xml:space="preserve">Is Sold</t>
   </si>
   <si>
-    <t xml:space="preserve">Atenolol (Ate) 10 mg Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchisin (Colchi) 20 cc Injection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchisin (Colchi) 500 mg Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losartan (Lora) 10 mg Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atenolol (Ate) 20 cc Injection</t>
+    <t xml:space="preserve">Aciclovir 200 mg Tablet</t>
   </si>
 </sst>
 </file>
@@ -56,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,6 +74,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,13 +124,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -163,10 +161,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="30.71"/>
   </cols>
@@ -185,132 +183,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
